--- a/biology/Botanique/Parc_du_Croissant-Vert_(Neuilly-sur-Marne)/Parc_du_Croissant-Vert_(Neuilly-sur-Marne).xlsx
+++ b/biology/Botanique/Parc_du_Croissant-Vert_(Neuilly-sur-Marne)/Parc_du_Croissant-Vert_(Neuilly-sur-Marne).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Parc du Croissant Vert (ou Parc des 33 Hectares) est un parc de 33 hectares de verdure situé à Neuilly-sur-Marne en France. Le parc se situe en face du lac du Parc de Maison Blanche[1]. Il est considéré comme « un espace vert majeur et structurant » de et par la commune[2].
+Le Parc du Croissant Vert (ou Parc des 33 Hectares) est un parc de 33 hectares de verdure situé à Neuilly-sur-Marne en France. Le parc se situe en face du lac du Parc de Maison Blanche. Il est considéré comme « un espace vert majeur et structurant » de et par la commune.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc se composait de mares, de prairies, et de fragments de charmaie-chênaie. Avec son ouverture croissante au public, l'espace s'est anthropisé[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc se composait de mares, de prairies, et de fragments de charmaie-chênaie. Avec son ouverture croissante au public, l'espace s'est anthropisé.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est possible de pratiquer certains sports dans le parc (vélo, courses...), qui comporte aussi une butte de jeux, un terrain d'aventure pour les enfants, un mini-golf (ouvert l'été) et un cynodrome (ouvert l'été). Le parc comprend également un stade d'athlétisme, un terrain de bi-cross[1], un skatepark[4], et une mini ferme pédagogique[5].
-Les barbecues y sont interdits depuis 2022[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est possible de pratiquer certains sports dans le parc (vélo, courses...), qui comporte aussi une butte de jeux, un terrain d'aventure pour les enfants, un mini-golf (ouvert l'été) et un cynodrome (ouvert l'été). Le parc comprend également un stade d'athlétisme, un terrain de bi-cross, un skatepark, et une mini ferme pédagogique.
+Les barbecues y sont interdits depuis 2022.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Amphibiens ; Triton crêté triton ponctué, triton palmé, crapaud commun[3]
-Ferme pédagogique : vache/veau, chèvres, moutons, poules, oies, canards, lapins, coqs, âne[5]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Amphibiens ; Triton crêté triton ponctué, triton palmé, crapaud commun
+Ferme pédagogique : vache/veau, chèvres, moutons, poules, oies, canards, lapins, coqs, âne</t>
         </is>
       </c>
     </row>
@@ -606,11 +624,13 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le sol du parc est sablo-argileux[3].
-Sorbus latifolia (Alisier de Fontainebleau)[1],[3] ;
-Prunus serrulata (cerisiers japonais) : en 2019, afin de favoriser le hanami, le Croissant-Vert est devenu le parc contenant le plus de cerisiers japonais en France (300)[7],[8].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le sol du parc est sablo-argileux.
+Sorbus latifolia (Alisier de Fontainebleau), ;
+Prunus serrulata (cerisiers japonais) : en 2019, afin de favoriser le hanami, le Croissant-Vert est devenu le parc contenant le plus de cerisiers japonais en France (300),.</t>
         </is>
       </c>
     </row>
